--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2588255.603098532</v>
+        <v>2583869.590194797</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205914</v>
+        <v>9964927.035287928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.725943106</v>
+        <v>430763.7823717227</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9357036.226895336</v>
+        <v>9357187.960308043</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>404.3795358314629</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>30.04225112093034</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.03250833502995</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>16.88986550434919</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>210.6832909125846</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>34.50046002839247</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>326.3606870035039</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.546296656423506</v>
+        <v>26.32882004050073</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -1548,7 +1548,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>153.9036548888877</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>16.75765473768369</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1785,7 +1785,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>210.177480908705</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>164.6278912879942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.53408223745137</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>46.19831151749385</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.27179222793497</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>81.3725990111929</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081974</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561458</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952163</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>89.53408223744914</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108366</v>
+        <v>49.82219399891277</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
@@ -2766,10 +2766,10 @@
         <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>246.400949841415</v>
+        <v>197.2394256088453</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>59.73562477865408</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3006,16 +3006,16 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1854515484204</v>
+        <v>7.220815391494971</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>105.2717029440428</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1854515484204</v>
+        <v>235.708231633297</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>91.23885045891222</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>1.749532638427094</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.995896579035</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>103.1983720868894</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>128.7104509524665</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1983720868894</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>862.1188160875561</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>476.3305634893118</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2666.803382815262</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2666.803382815262</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2666.803382815262</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2666.803382815262</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2335.740495471692</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.971840201577</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1609.506081940498</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y2" t="n">
-        <v>1609.506081940498</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.6820060902423</v>
+        <v>71.00345202677778</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>71.00345202677778</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>71.00345202677778</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>768.2839875620912</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047574</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223453</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>1257.755191400005</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>899.4894927932542</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>513.7012401950099</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>102.7153354054023</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>88.79193134399321</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>88.79193134399321</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2136.285654263387</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.146322287575</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4886,7 +4886,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598707</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.57560470564073</v>
+        <v>546.4805193761949</v>
       </c>
       <c r="C10" t="n">
-        <v>62.57560470564073</v>
+        <v>377.544336448288</v>
       </c>
       <c r="D10" t="n">
-        <v>62.57560470564073</v>
+        <v>227.4276970359523</v>
       </c>
       <c r="E10" t="n">
-        <v>62.57560470564073</v>
+        <v>227.4276970359523</v>
       </c>
       <c r="F10" t="n">
-        <v>62.57560470564073</v>
+        <v>80.53774953804196</v>
       </c>
       <c r="G10" t="n">
-        <v>62.57560470564073</v>
+        <v>80.53774953804196</v>
       </c>
       <c r="H10" t="n">
-        <v>62.57560470564073</v>
+        <v>80.53774953804196</v>
       </c>
       <c r="I10" t="n">
-        <v>62.57560470564073</v>
+        <v>80.53774953804196</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406187</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>290.5651556036581</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>62.57560470564073</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.57560470564073</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890959</v>
@@ -5029,64 +5029,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K11" t="n">
-        <v>893.7741287892018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
         <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>108.6891182291399</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>439.1978607924987</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L12" t="n">
-        <v>929.9301936362499</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>929.9301936362499</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.026157035586</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O12" t="n">
-        <v>2098.90263203578</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P12" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.5320614616468</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C13" t="n">
-        <v>783.5958785337399</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D13" t="n">
-        <v>633.4792391214041</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E13" t="n">
-        <v>485.566145539011</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F13" t="n">
         <v>485.566145539011</v>
@@ -5196,13 +5196,13 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2273.954262074192</v>
       </c>
       <c r="T13" t="n">
-        <v>2178.382964033126</v>
+        <v>2273.954262074192</v>
       </c>
       <c r="U13" t="n">
-        <v>1889.306750347853</v>
+        <v>2273.954262074192</v>
       </c>
       <c r="V13" t="n">
-        <v>1872.379826370395</v>
+        <v>2019.269773868305</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.962656333434</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.973105435417</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1134.180526291887</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890958</v>
@@ -5263,49 +5263,49 @@
         <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963559</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5314,16 +5314,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034529</v>
+        <v>198.8209117892279</v>
       </c>
       <c r="K15" t="n">
-        <v>302.0892292003572</v>
+        <v>198.8209117892279</v>
       </c>
       <c r="L15" t="n">
-        <v>792.8215620441084</v>
+        <v>689.5532446329793</v>
       </c>
       <c r="M15" t="n">
-        <v>1384.839916296236</v>
+        <v>1281.571598885107</v>
       </c>
       <c r="N15" t="n">
-        <v>2006.935879695572</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.3922759648282</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C16" t="n">
-        <v>632.4560930369213</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D16" t="n">
-        <v>632.4560930369213</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E16" t="n">
-        <v>632.4560930369213</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5463,25 +5463,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>2141.874372008578</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1852.798158323305</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V16" t="n">
-        <v>1598.113670117418</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.822870836615</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.833319938598</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.0407407950679</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5503,46 +5503,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
@@ -5560,7 +5560,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034529</v>
+        <v>142.676769632785</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>142.676769632785</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>142.676769632785</v>
       </c>
       <c r="M18" t="n">
-        <v>1062.737405310563</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N18" t="n">
-        <v>1684.833368709899</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.4602891213869</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>530.5241061934801</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D19" t="n">
-        <v>530.5241061934801</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E19" t="n">
-        <v>382.6110126110869</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F19" t="n">
-        <v>235.7210651131766</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G19" t="n">
         <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L19" t="n">
         <v>820.2210160948589</v>
@@ -5697,28 +5697,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2382.747538206913</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2163.068755921295</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1873.992542236022</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1619.308054030135</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1329.890883993174</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.901333095157</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>881.1087539516267</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580352</v>
@@ -5825,31 +5825,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L21" t="n">
-        <v>584.5806809953583</v>
+        <v>764.7727330321212</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.599035247486</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N21" t="n">
-        <v>1798.694998646822</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.571473647016</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5889,31 +5889,31 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>495.0957149476001</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9524904749385</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9524904749385</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0625429770282</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L22" t="n">
         <v>820.2210160948589</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5980,61 +5980,61 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127632</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160724</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507196</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384009</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944175</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883211</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800317</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259454</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946802</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034527</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>241.4963299034527</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L24" t="n">
-        <v>241.4963299034527</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>833.5146841555795</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1455.610647554915</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>2002.487122555109</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.070640981184</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149475978</v>
+        <v>512.6296115053483</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196909</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196909</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196909</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F25" t="n">
-        <v>235.7210651131766</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411608</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117242</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948581</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139317</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931024</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946053</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782257</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335692</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294194</v>
+        <v>2379.087050851944</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033124</v>
+        <v>2195.916860590874</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747506</v>
+        <v>1976.238078305256</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062233</v>
+        <v>1687.161864619983</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856346</v>
+        <v>1432.477376414096</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819385</v>
+        <v>1143.060206377136</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213677</v>
+        <v>915.0706554791182</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778375</v>
+        <v>694.278076335588</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6214,7 +6214,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127629</v>
@@ -6244,16 +6244,16 @@
         <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6314,13 +6314,13 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695572</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.271631206229</v>
+        <v>804.6189678792535</v>
       </c>
       <c r="C28" t="n">
-        <v>763.271631206229</v>
+        <v>635.6827849513467</v>
       </c>
       <c r="D28" t="n">
-        <v>613.1549917938933</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="E28" t="n">
-        <v>465.2418982115001</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F28" t="n">
-        <v>318.3519507135898</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G28" t="n">
         <v>318.3519507135898</v>
@@ -6414,22 +6414,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747508</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U28" t="n">
-        <v>1709.814333422846</v>
+        <v>1979.151220993888</v>
       </c>
       <c r="V28" t="n">
-        <v>1455.129845216959</v>
+        <v>1724.466732788001</v>
       </c>
       <c r="W28" t="n">
-        <v>1165.712675179999</v>
+        <v>1435.049562751041</v>
       </c>
       <c r="X28" t="n">
-        <v>1165.712675179999</v>
+        <v>1207.060011853023</v>
       </c>
       <c r="Y28" t="n">
-        <v>944.9200960364687</v>
+        <v>986.2674327094933</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
         <v>842.974607438402</v>
@@ -6472,25 +6472,25 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6536,31 +6536,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>142.676769632785</v>
+        <v>302.0892292003568</v>
       </c>
       <c r="L30" t="n">
-        <v>142.676769632785</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849127</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>723.0852658456174</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C31" t="n">
-        <v>554.1490829177105</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D31" t="n">
-        <v>404.0324435053748</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E31" t="n">
-        <v>404.0324435053748</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F31" t="n">
-        <v>404.0324435053748</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G31" t="n">
-        <v>236.8182486799536</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H31" t="n">
         <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
         <v>820.2210160948589</v>
@@ -6645,28 +6645,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>2019.269773868305</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>2019.269773868305</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X31" t="n">
-        <v>1125.526309819387</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y31" t="n">
-        <v>904.7337306758571</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160707</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
         <v>842.974607438402</v>
@@ -6718,16 +6718,16 @@
         <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6773,34 +6773,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>373.2380436180322</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>965.25639787016</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N33" t="n">
-        <v>1587.352361269496</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>749.780203153487</v>
+        <v>1016.791123359144</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8440202255802</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D34" t="n">
-        <v>430.7273808132444</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E34" t="n">
-        <v>282.8142872308513</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F34" t="n">
-        <v>282.8142872308513</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G34" t="n">
-        <v>176.4792337520202</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
         <v>820.2210160948589</v>
@@ -6882,28 +6882,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747508</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062235</v>
+        <v>2191.323376473778</v>
       </c>
       <c r="V34" t="n">
-        <v>1669.627968062235</v>
+        <v>1936.638888267892</v>
       </c>
       <c r="W34" t="n">
-        <v>1380.210798025274</v>
+        <v>1647.221718230931</v>
       </c>
       <c r="X34" t="n">
-        <v>1152.221247127257</v>
+        <v>1419.232167332914</v>
       </c>
       <c r="Y34" t="n">
-        <v>931.4286679837268</v>
+        <v>1198.439588189384</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6925,43 +6925,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160696</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
         <v>4606.950144347201</v>
@@ -6970,19 +6970,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M36" t="n">
-        <v>1384.839916296236</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N36" t="n">
-        <v>2006.935879695572</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
         <v>2553.812354695766</v>
@@ -7074,31 +7074,31 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E37" t="n">
-        <v>178.2464384373001</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F37" t="n">
-        <v>178.2464384373001</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G37" t="n">
-        <v>178.2464384373001</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7156,16 +7156,16 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H38" t="n">
         <v>93.84834815160703</v>
@@ -7180,10 +7180,10 @@
         <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
         <v>2971.58344915112</v>
@@ -7259,19 +7259,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2380436180322</v>
+        <v>142.676769632785</v>
       </c>
       <c r="M39" t="n">
-        <v>965.25639787016</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N39" t="n">
-        <v>1587.352361269496</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O39" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>780.3691866193144</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>780.3691866193144</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D40" t="n">
-        <v>780.3691866193144</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E40" t="n">
-        <v>632.4560930369213</v>
+        <v>347.182621365207</v>
       </c>
       <c r="F40" t="n">
-        <v>485.5661455390109</v>
+        <v>200.2926738672966</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7377,7 +7377,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>780.3691866193144</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
         <v>842.974607438402</v>
@@ -7423,37 +7423,37 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
         <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
         <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.861033895493</v>
@@ -7484,31 +7484,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>142.676769632785</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L42" t="n">
-        <v>142.676769632785</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849127</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476001</v>
+        <v>654.5023284669178</v>
       </c>
       <c r="C43" t="n">
-        <v>495.0957149476001</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9790755352643</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7382956495174</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160704</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948589</v>
@@ -7608,13 +7608,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819387</v>
+        <v>1284.932923338705</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213699</v>
+        <v>1056.943372440688</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778398</v>
+        <v>836.1507932971575</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556115</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112148</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459571</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064409</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4949906792617</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>577.4197628504824</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L45" t="n">
-        <v>577.4197628504824</v>
+        <v>584.5806809953584</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.798250477034</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.396214031641</v>
+        <v>1798.694998646823</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.305944270928</v>
+        <v>2345.571473647017</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2759.307924740163</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>2590.371741812256</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D46" t="n">
-        <v>2590.371741812256</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E46" t="n">
-        <v>2590.371741812256</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="F46" t="n">
-        <v>2590.371741812256</v>
+        <v>198.089128037354</v>
       </c>
       <c r="G46" t="n">
-        <v>2423.175642527136</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>2339.270987048063</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>2339.270987048063</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>2419.507005478387</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>2681.196268003926</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>3071.594862179866</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>3493.604564910901</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>3911.014436570909</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>4280.543717279894</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>4573.219172853453</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>4625.371703832754</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>4442.516869487658</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>4222.9154045106</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>3933.840177854798</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>3679.155689648911</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>3389.73851961195</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>3161.748968713933</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>2940.956389570403</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142007</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782909085</v>
+        <v>51.31264782908983</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>51.31264782909216</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.31264782909591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.31264782908983</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>27.43483346957126</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>235.3799885861443</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>76.00797063971547</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>121.8951070485968</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>135.1401768409651</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>62.34368079027739</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.16945386597402</v>
       </c>
       <c r="H22" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>55.8869657854821</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440909</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>17.35855759217078</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>39.78450170700538</v>
+        <v>88.94602593957509</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.71836501329983</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>278.9646361569255</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>60.27034993312417</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>50.47721991512341</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>76.00797063971561</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.7044571535268</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>60.16217041863425</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.5887567730598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>43.23559055967974</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>157.8125473841245</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>62.34368079027747</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194117</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299408</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791237.5424528423</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
         <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>625179.3072668831</v>
+        <v>625179.3072668834</v>
       </c>
       <c r="F2" t="n">
         <v>625179.3072668834</v>
       </c>
       <c r="G2" t="n">
-        <v>625179.3072668834</v>
+        <v>625179.3072668833</v>
       </c>
       <c r="H2" t="n">
         <v>625179.3072668832</v>
       </c>
       <c r="I2" t="n">
-        <v>625179.3072668833</v>
+        <v>625179.3072668832</v>
       </c>
       <c r="J2" t="n">
         <v>625179.3072668834</v>
@@ -26343,19 +26343,19 @@
         <v>625179.3072668834</v>
       </c>
       <c r="L2" t="n">
+        <v>625179.3072668833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625179.3072668833</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625179.3072668833</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="P2" t="n">
         <v>625179.3072668834</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625179.3072668831</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625179.3072668834</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625179.3072668836</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545119</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925939</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901371</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855115</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855182</v>
+        <v>5781.971894855121</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855133</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855184</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="J4" t="n">
+        <v>5781.971894855089</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5781.971894855087</v>
+      </c>
+      <c r="L4" t="n">
         <v>5781.971894855098</v>
       </c>
-      <c r="K4" t="n">
-        <v>5781.97189485512</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>5781.971894855122</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5781.971894855153</v>
+      </c>
+      <c r="O4" t="n">
         <v>5781.971894855101</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>5781.971894855089</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5781.971894855101</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5781.9718948551</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5067.592601670438</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="L5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="M5" t="n">
         <v>100930.0394572386</v>
-      </c>
-      <c r="L5" t="n">
-        <v>100930.0394572386</v>
-      </c>
-      <c r="M5" t="n">
-        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-237584.0915608658</v>
       </c>
       <c r="C6" t="n">
-        <v>352383.7876536784</v>
+        <v>352383.7876536787</v>
       </c>
       <c r="D6" t="n">
-        <v>352383.7876536787</v>
+        <v>352383.787653679</v>
       </c>
       <c r="E6" t="n">
-        <v>-418042.3695397225</v>
+        <v>-418401.3393583656</v>
       </c>
       <c r="F6" t="n">
-        <v>518467.2959147898</v>
+        <v>518108.3260961466</v>
       </c>
       <c r="G6" t="n">
-        <v>518467.2959147898</v>
+        <v>518108.3260961465</v>
       </c>
       <c r="H6" t="n">
-        <v>518467.2959147895</v>
+        <v>518108.3260961464</v>
       </c>
       <c r="I6" t="n">
-        <v>518467.2959147905</v>
+        <v>518108.3260961464</v>
       </c>
       <c r="J6" t="n">
-        <v>342044.0767221958</v>
+        <v>341685.1069035538</v>
       </c>
       <c r="K6" t="n">
-        <v>518467.2959147897</v>
+        <v>518108.3260961468</v>
       </c>
       <c r="L6" t="n">
-        <v>518467.2959147897</v>
+        <v>518108.3260961465</v>
       </c>
       <c r="M6" t="n">
-        <v>394160.0845246523</v>
+        <v>393801.1147060092</v>
       </c>
       <c r="N6" t="n">
-        <v>518467.2959147898</v>
+        <v>518108.3260961465</v>
       </c>
       <c r="O6" t="n">
-        <v>518467.2959147898</v>
+        <v>518108.3260961464</v>
       </c>
       <c r="P6" t="n">
-        <v>512712.2790804618</v>
+        <v>518108.3260961467</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170869</v>
@@ -26758,7 +26758,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716384</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
         <v>1358.041048716386</v>
@@ -26779,7 +26779,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992987</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405319</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.496509910248562</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>24.43615145388137</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.7994718469074</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>129.54409714222</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>171.2470791596772</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>114.7731302731593</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>117.4308562164687</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>43.37041367496511</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>36.65366253211347</v>
+        <v>18.87113914803624</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31834,43 +31834,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>141.8283035126595</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31916,7 +31916,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31925,16 +31925,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31946,7 +31946,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32071,43 +32071,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>232.8705192299201</v>
       </c>
       <c r="K15" t="n">
-        <v>199.0463877591108</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32153,7 +32153,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32162,16 +32162,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32183,7 +32183,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32308,43 +32308,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>176.1592645264424</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>596.5310601614053</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32390,7 +32390,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32399,16 +32399,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32420,7 +32420,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32545,43 +32545,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>333.2691884317018</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32627,7 +32627,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32636,16 +32636,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32657,7 +32657,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377421</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122277</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704057</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874061</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830424</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364255</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293299</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229599</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086944</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687517</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148601</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987159</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854256</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665717</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901936</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540903</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088188</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735815</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504294</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927631</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426198</v>
+        <v>189.4642825742344</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982449</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.054212181559</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862155</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821091</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013752</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291841</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548565</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284919</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273331</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900883</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640615</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265019</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416871</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465959</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282421</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.064198356174</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860858</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851324</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551968</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704642</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33034,16 +33034,16 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>467.4901056247181</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>187.1630768341347</v>
+        <v>199.0463877591104</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504302</v>
@@ -33280,10 +33280,10 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,19 +33499,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504302</v>
+        <v>403.4749205278523</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>694.9967242426205</v>
@@ -33520,10 +33520,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33739,13 +33739,13 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>270.9138770698935</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>467.4901056247181</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
         <v>759.7214730927639</v>
@@ -33754,7 +33754,7 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33979,7 +33979,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>420.7661933823238</v>
+        <v>187.8760176396499</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504302</v>
@@ -33994,7 +33994,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,10 +34213,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>187.1630768341347</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504302</v>
@@ -34225,13 +34225,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>571.4938338238233</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>334.769386094615</v>
+        <v>344.3187317059965</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047519</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262939</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.99067684599282</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35576,19 +35576,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.5673812695019</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>106.0328925632534</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20494878475177</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35813,19 +35813,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>605.157040442574</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>49.32163785977567</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>453.9348157169609</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36050,19 +36050,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>605.157040442575</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>194.7148086518276</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36287,19 +36287,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607198</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380619</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664384</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020572</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263689</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870076</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134821</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>418.5673812695065</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845838</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069148</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.998337628411</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094298</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981754</v>
+        <v>46.86803812978999</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839146</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.0724380955375</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066035</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642055</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243777</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883424</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209157</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606356</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931356</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044797</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>605.1570404425727</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>325.3560717026998</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>779.6000841311495</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
         <v>744.73230092637</v>
@@ -36852,7 +36852,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845842</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>49.32163785977567</v>
+        <v>61.20494878475137</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284119</v>
@@ -36928,10 +36928,10 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37086,13 +37086,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q32" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>282.2118136024496</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284119</v>
+        <v>261.340886605834</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>552.4004797981761</v>
@@ -37168,10 +37168,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37329,7 +37329,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>133.0724380955345</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>325.3560717026998</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
         <v>628.3797610094306</v>
@@ -37402,7 +37402,7 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M38" t="n">
         <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
         <v>689.7596327870085</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>282.2118136024496</v>
+        <v>49.32163785977568</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284119</v>
@@ -37642,7 +37642,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O41" t="n">
         <v>689.7596327870085</v>
@@ -37800,7 +37800,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.567381269501</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
         <v>127.3573607845842</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>49.32163785977567</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284119</v>
@@ -37873,13 +37873,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>428.8975893793788</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802847</v>
+        <v>210.3443242916662</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583869.590194797</v>
+        <v>2585688.861885837</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287928</v>
+        <v>9964927.035287926</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717227</v>
+        <v>430763.7823717229</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>404.3795358314629</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>210.6832909125846</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>152.6756936046795</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>65.0588499087778</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.7498680634317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.50046002839247</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>34.50046002839182</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>26.32882004050029</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.32882004050073</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>153.9036548888877</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>138.1072194075915</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1785,7 +1785,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>162.7676390052489</v>
       </c>
       <c r="U16" t="n">
-        <v>210.177480908705</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1900,7 +1900,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>103.8240095422217</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.53408223745137</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
@@ -2137,7 +2137,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.3725990111929</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>23.52594097433436</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>49.82219399891277</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>38.23508833617434</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>197.2394256088453</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>91.23885045891222</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -2970,7 +2970,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3006,10 +3006,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>7.220815391494971</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3207,7 +3207,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>235.708231633297</v>
+        <v>153.9036548888877</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127574</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>91.23885045891222</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.119387955707468</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3520,7 +3520,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>105.3798824585327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>21.11024843228061</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>128.7104509524665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>103.1983720868894</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1589.347031634718</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1220.384514694307</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>862.1188160875561</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>476.3305634893118</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4366,16 +4366,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.086203674652</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.94687169884</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>768.2839875620912</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="C5" t="n">
-        <v>768.2839875620912</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="D5" t="n">
-        <v>768.2839875620912</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>382.4957349638465</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>375.550234214643</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>361.6268301532339</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157407</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887293</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626213</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626213</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4707,70 +4707,70 @@
         <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>554.6442689908469</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>554.6442689908469</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.717708340416</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1257.755191400005</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>899.4894927932542</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>513.7012401950099</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>102.7153354054023</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>88.79193134399321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>88.79193134399321</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2662.300141494594</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761949</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>377.544336448288</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359523</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>227.4276970359523</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="F10" t="n">
-        <v>80.53774953804196</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="G10" t="n">
-        <v>80.53774953804196</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="H10" t="n">
-        <v>80.53774953804196</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>80.53774953804196</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890959</v>
@@ -5029,55 +5029,55 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507201</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
         <v>3468.466124132384</v>
@@ -5086,7 +5086,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
         <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.755759562691</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N12" t="n">
-        <v>2276.851722962027</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.422008959557</v>
+        <v>932.2078141341359</v>
       </c>
       <c r="C13" t="n">
-        <v>930.4858260316502</v>
+        <v>763.271631206229</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3691866193144</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4560930369213</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="F13" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G13" t="n">
         <v>318.3519507135898</v>
@@ -5196,13 +5196,13 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5211,40 +5211,40 @@
         <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931021</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946051</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782255</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.954262074192</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.954262074192</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.954262074192</v>
+        <v>2106.740067248771</v>
       </c>
       <c r="V13" t="n">
-        <v>2019.269773868305</v>
+        <v>1852.055579042884</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.852603831344</v>
+        <v>1562.638409005923</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.863052933327</v>
+        <v>1334.648858107906</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.070473789797</v>
+        <v>1113.856278964376</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5266,19 +5266,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
         <v>842.974607438402</v>
@@ -5299,13 +5299,13 @@
         <v>4151.951912946808</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5320,10 +5320,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>198.8209117892279</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K15" t="n">
-        <v>198.8209117892279</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L15" t="n">
-        <v>689.5532446329793</v>
+        <v>584.5806809953584</v>
       </c>
       <c r="M15" t="n">
-        <v>1281.571598885107</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N15" t="n">
-        <v>1903.667562284443</v>
+        <v>1798.694998646823</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284443</v>
+        <v>2345.571473647017</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.8714428665047</v>
+        <v>801.3922759648282</v>
       </c>
       <c r="C16" t="n">
-        <v>402.9352599385978</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="D16" t="n">
-        <v>402.9352599385978</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="E16" t="n">
-        <v>402.9352599385978</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5460,28 +5460,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>2265.000742764736</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.403695981139</v>
+        <v>1975.924529079463</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.719207775252</v>
+        <v>1721.240040873576</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.302037738292</v>
+        <v>1431.822870836615</v>
       </c>
       <c r="X16" t="n">
-        <v>974.3124868402746</v>
+        <v>1203.833319938598</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.5199076967444</v>
+        <v>983.0407407950679</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5503,64 +5503,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>142.676769632785</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>142.676769632785</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>142.676769632785</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849127</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284249</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284443</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P18" t="n">
         <v>2323.251080710519</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
         <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
         <v>820.2210160948589</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5740,19 +5740,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160696</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
         <v>842.974607438402</v>
@@ -5776,28 +5776,28 @@
         <v>4515.534099052815</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668118</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L21" t="n">
-        <v>764.7727330321212</v>
+        <v>584.5806809953584</v>
       </c>
       <c r="M21" t="n">
-        <v>1356.791087284249</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>1798.694998646823</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284443</v>
+        <v>2345.571473647017</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>654.5023284669178</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="D22" t="n">
-        <v>176.0428926073575</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="E22" t="n">
-        <v>176.0428926073575</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F22" t="n">
-        <v>176.0428926073575</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
         <v>820.2210160948589</v>
@@ -5937,25 +5937,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2337.789577552444</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2118.110795266826</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1829.034581581553</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1574.350093375666</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1284.932923338705</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>1056.943372440688</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>836.1507932971575</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580352</v>
@@ -6062,16 +6062,16 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
         <v>1062.737405310563</v>
@@ -6083,10 +6083,10 @@
         <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>512.6296115053483</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>343.6934285774414</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>343.6934285774414</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>343.6934285774414</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F25" t="n">
-        <v>343.6934285774414</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G25" t="n">
-        <v>176.4792337520202</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948589</v>
@@ -6171,28 +6171,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.087050851944</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2195.916860590874</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>1976.238078305256</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1687.161864619983</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1432.477376414096</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1143.060206377136</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>915.0706554791182</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>694.278076335588</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
         <v>1949.298676890959</v>
@@ -6214,64 +6214,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K26" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6299,22 +6299,22 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310563</v>
+        <v>920.1145186182265</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.755759562691</v>
+        <v>1512.132872870354</v>
       </c>
       <c r="N27" t="n">
         <v>2134.22883626969</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>804.6189678792535</v>
+        <v>744.6035248193385</v>
       </c>
       <c r="C28" t="n">
-        <v>635.6827849513467</v>
+        <v>705.9822234696675</v>
       </c>
       <c r="D28" t="n">
-        <v>485.5661455390109</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E28" t="n">
-        <v>485.5661455390109</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F28" t="n">
-        <v>485.5661455390109</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
         <v>820.2210160948589</v>
@@ -6408,28 +6408,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T28" t="n">
-        <v>2178.382964033126</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U28" t="n">
-        <v>1979.151220993888</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V28" t="n">
-        <v>1724.466732788001</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W28" t="n">
-        <v>1435.049562751041</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X28" t="n">
-        <v>1207.060011853023</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y28" t="n">
-        <v>986.2674327094933</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K29" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6536,25 +6536,25 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>302.0892292003568</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L30" t="n">
-        <v>792.8215620441082</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
         <v>2553.812354695766</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>930.4858260316502</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D31" t="n">
-        <v>780.3691866193144</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E31" t="n">
-        <v>632.4560930369213</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F31" t="n">
-        <v>485.5661455390109</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L31" t="n">
         <v>820.2210160948589</v>
@@ -6645,28 +6645,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>2019.269773868305</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.269773868305</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.852603831344</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J32" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K32" t="n">
         <v>842.974607438402</v>
@@ -6718,16 +6718,16 @@
         <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6773,34 +6773,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J33" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L33" t="n">
         <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>1321.464883050339</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N33" t="n">
-        <v>1321.464883050339</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O33" t="n">
-        <v>1868.341358050533</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P33" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.791123359144</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C34" t="n">
-        <v>847.854940431237</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D34" t="n">
-        <v>697.7383010189012</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E34" t="n">
-        <v>549.8252074365081</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L34" t="n">
         <v>820.2210160948589</v>
@@ -6891,19 +6891,19 @@
         <v>2429.412499335695</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.323376473778</v>
+        <v>2273.954262074192</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.638888267892</v>
+        <v>2019.269773868305</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.221718230931</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.232167332914</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.439588189384</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6928,22 +6928,22 @@
         <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127628</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160696</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>424.1437450015205</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
         <v>2234.298471234015</v>
@@ -6970,19 +6970,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K36" t="n">
-        <v>373.2380436180322</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2380436180322</v>
+        <v>142.676769632785</v>
       </c>
       <c r="M36" t="n">
-        <v>965.25639787016</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.352361269496</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C37" t="n">
-        <v>402.9352599385978</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D37" t="n">
-        <v>402.9352599385978</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E37" t="n">
-        <v>402.9352599385978</v>
+        <v>95.98914406646307</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
         <v>93.84834815160704</v>
@@ -7119,28 +7119,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="38">
@@ -7156,52 +7156,52 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160696</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K38" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7247,31 +7247,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K39" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L39" t="n">
-        <v>142.676769632785</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6951238849127</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284443</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710519</v>
+        <v>2548.787259636257</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7314,28 +7314,28 @@
         <v>495.0957149476001</v>
       </c>
       <c r="D40" t="n">
-        <v>495.0957149476001</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E40" t="n">
-        <v>347.182621365207</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F40" t="n">
-        <v>200.2926738672966</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7399,10 +7399,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
         <v>93.84834815160703</v>
@@ -7420,7 +7420,7 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N41" t="n">
         <v>2971.58344915112</v>
@@ -7438,25 +7438,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>915.0894235587172</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="M42" t="n">
-        <v>1507.107777810845</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.203741210181</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>654.5023284669178</v>
+        <v>746.1252502501684</v>
       </c>
       <c r="C43" t="n">
-        <v>485.5661455390109</v>
+        <v>577.1890673222615</v>
       </c>
       <c r="D43" t="n">
-        <v>485.5661455390109</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E43" t="n">
-        <v>485.5661455390109</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F43" t="n">
-        <v>485.5661455390109</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062235</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856348</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.932923338705</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.943372440688</v>
+        <v>1148.566294223938</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.1507932971575</v>
+        <v>927.7737150804081</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
@@ -7654,28 +7654,28 @@
         <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
@@ -7730,22 +7730,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160703</v>
+        <v>243.9627910411614</v>
       </c>
       <c r="L45" t="n">
-        <v>584.5806809953584</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.599035247486</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N45" t="n">
-        <v>1798.694998646823</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.571473647017</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.812354695766</v>
@@ -7788,13 +7788,13 @@
         <v>495.0957149476001</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9790755352643</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9790755352643</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>198.089128037354</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
         <v>93.84834815160703</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8467,7 +8467,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782908983</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782908991</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>51.3126478290913</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782908991</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.31264782908892</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N41" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>27.43483346957126</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>148.078232140829</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>54.71435545751294</v>
       </c>
       <c r="U16" t="n">
-        <v>76.00797063971547</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>84.16945386597402</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.8125473841246</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>76.00797063971552</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>17.35855759217078</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>129.0117327624535</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>88.94602593957509</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>76.00797063971561</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>278.9646361569255</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>50.47721991512341</v>
+        <v>132.2817966595327</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>76.00797063971561</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440902</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>43.23559055967969</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>60.16217041863425</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.5052245859318</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>157.8125473841245</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>43.23559055967969</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>62.34368079027747</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791500.2956299408</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>625179.3072668833</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="H2" t="n">
         <v>625179.3072668834</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>625179.3072668831</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625179.3072668833</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="M2" t="n">
         <v>625179.3072668834</v>
       </c>
-      <c r="G2" t="n">
-        <v>625179.3072668833</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>625179.3072668832</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625179.3072668832</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625179.3072668834</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625179.3072668834</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625179.3072668833</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625179.3072668833</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625179.3072668833</v>
       </c>
       <c r="O2" t="n">
         <v>625179.3072668832</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901373</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.971894855108</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.971894855087</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855121</v>
+        <v>5781.971894855139</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.97189485512</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855089</v>
+        <v>5781.971894855122</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855087</v>
+        <v>5781.971894855122</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855098</v>
+        <v>5781.971894855102</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855122</v>
+        <v>5781.97189485512</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855153</v>
+        <v>5781.971894855102</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855101</v>
+        <v>5781.971894855107</v>
       </c>
       <c r="P4" t="n">
-        <v>5781.971894855089</v>
+        <v>5781.971894855109</v>
       </c>
     </row>
     <row r="5">
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="I5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="J5" t="n">
         <v>100930.0394572386</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
         <v>100930.0394572386</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>100930.0394572386</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100930.0394572386</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100930.0394572386</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="L5" t="n">
-        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
         <v>100930.0394572385</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237584.0915608658</v>
+        <v>-237584.0915608657</v>
       </c>
       <c r="C6" t="n">
+        <v>352383.7876536789</v>
+      </c>
+      <c r="D6" t="n">
         <v>352383.7876536787</v>
       </c>
-      <c r="D6" t="n">
-        <v>352383.787653679</v>
-      </c>
       <c r="E6" t="n">
-        <v>-418401.3393583656</v>
+        <v>-418078.266521587</v>
       </c>
       <c r="F6" t="n">
-        <v>518108.3260961466</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="G6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329253</v>
       </c>
       <c r="H6" t="n">
-        <v>518108.3260961464</v>
+        <v>518431.3989329255</v>
       </c>
       <c r="I6" t="n">
-        <v>518108.3260961464</v>
+        <v>518431.3989329251</v>
       </c>
       <c r="J6" t="n">
-        <v>341685.1069035538</v>
+        <v>342008.1797403323</v>
       </c>
       <c r="K6" t="n">
-        <v>518108.3260961468</v>
+        <v>518431.3989329252</v>
       </c>
       <c r="L6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329252</v>
       </c>
       <c r="M6" t="n">
-        <v>393801.1147060092</v>
+        <v>394124.1875427882</v>
       </c>
       <c r="N6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329252</v>
       </c>
       <c r="O6" t="n">
-        <v>518108.3260961464</v>
+        <v>518431.3989329253</v>
       </c>
       <c r="P6" t="n">
-        <v>518108.3260961467</v>
+        <v>518431.3989329255</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.2973844992993</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405323</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405323</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.496509910248562</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.496509910248449</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>171.2470791596772</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>171.2470791596776</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>114.7731302731595</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>114.7731302731593</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>117.4308562164687</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>216.7237074798975</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>129.8420688012949</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>18.87113914803624</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,19 +31849,19 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>439.1579551075595</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>232.8705192299201</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32092,13 +32092,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>344.3187317059965</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>176.1592645264424</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>254.1890314243778</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>372.8719498286953</v>
@@ -32551,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>333.2691884317018</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>344.3187317059965</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32803,13 +32803,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>189.4642825742344</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33031,13 +33031,13 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745725</v>
+        <v>490.1800829631213</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>615.6579511813127</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33265,7 +33265,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>199.0463877591104</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
         <v>634.2436048745725</v>
@@ -33277,7 +33277,7 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33508,7 +33508,7 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4749205278523</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -33517,13 +33517,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>489.7119024980487</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>270.9138770698935</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>187.8760176396499</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33757,7 +33757,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,10 +33976,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504302</v>
@@ -33988,13 +33988,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>145.0576276814853</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34210,28 +34210,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>302.8877650506832</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>571.4938338238233</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,13 +34450,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>289.4721893678483</v>
       </c>
       <c r="L45" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927639</v>
@@ -34465,10 +34465,10 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>344.3187317059965</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,10 +35029,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047519</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380626</v>
@@ -35433,7 +35433,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209121</v>
       </c>
       <c r="O13" t="n">
         <v>370.729754560636</v>
@@ -35667,7 +35667,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.567381269501</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R14" t="n">
         <v>127.3573607845842</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>106.0328925632534</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>210.3443242916662</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>677.0902038955306</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
         <v>728.2874363020583</v>
@@ -35904,7 +35904,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R17" t="n">
         <v>127.3573607845842</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>49.32163785977567</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>122.8473193410445</v>
       </c>
       <c r="O18" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>232.8901757426738</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>194.7148086518276</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>210.3443242916662</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671539</v>
       </c>
       <c r="L23" t="n">
         <v>625.7775560664393</v>
@@ -36381,7 +36381,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136741</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>46.86803812978999</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380626</v>
@@ -36618,7 +36618,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946983</v>
+        <v>351.6257031832471</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>484.3162390979793</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M29" t="n">
         <v>728.2874363020583</v>
@@ -36852,7 +36852,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>418.5673812695001</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845842</v>
@@ -36913,7 +36913,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20494878475137</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
         <v>495.6892250946983</v>
@@ -36925,7 +36925,7 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37086,13 +37086,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>605.1570404425727</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>261.340886605834</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37314,7 +37314,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N35" t="n">
         <v>744.73230092637</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>133.0724380955345</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>49.32163785977567</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37405,7 +37405,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>677.0902038955297</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
         <v>728.2874363020583</v>
@@ -37566,7 +37566,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>49.32163785977568</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284119</v>
@@ -37636,13 +37636,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>5.07585359546375</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N41" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
         <v>689.7596327870085</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>164.3333852708091</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>428.8975893793788</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M44" t="n">
         <v>728.2874363020583</v>
@@ -38040,7 +38040,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>151.6307503934893</v>
       </c>
       <c r="L45" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094306</v>
@@ -38113,10 +38113,10 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>210.3443242916662</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
